--- a/data/trans_orig/P04D$aparatos-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P04D$aparatos-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>205740</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>185386</v>
+        <v>185068</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>229273</v>
+        <v>227039</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4705731160339561</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4240192072019174</v>
+        <v>0.4232922896110357</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.524399535572054</v>
+        <v>0.519289498716924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>137</v>
@@ -764,19 +764,19 @@
         <v>152516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>134436</v>
+        <v>134425</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>172092</v>
+        <v>171352</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4850190578863353</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4275221261645765</v>
+        <v>0.4274883990878786</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5472725326987865</v>
+        <v>0.5449180125419787</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>325</v>
@@ -785,19 +785,19 @@
         <v>358256</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>329609</v>
+        <v>330861</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>390624</v>
+        <v>389044</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4766164833164877</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4385047563307736</v>
+        <v>0.4401701954024819</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5196788269198148</v>
+        <v>0.5175764133822045</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>28733</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19893</v>
+        <v>20156</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40662</v>
+        <v>40858</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06571850812637718</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04549870317176424</v>
+        <v>0.04610129492518479</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09300356928874504</v>
+        <v>0.09345169461937353</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -835,19 +835,19 @@
         <v>16814</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10313</v>
+        <v>10550</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26219</v>
+        <v>25808</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0534714445426776</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03279676467518004</v>
+        <v>0.03355082685290926</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08337948906125738</v>
+        <v>0.08207133773516237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -856,19 +856,19 @@
         <v>45547</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33377</v>
+        <v>34143</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60062</v>
+        <v>59224</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06059502748903648</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04440471633679603</v>
+        <v>0.04542259887458364</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07990559472506754</v>
+        <v>0.0787909304026406</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>185223</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>162952</v>
+        <v>164959</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>205197</v>
+        <v>206660</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4236466032749982</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3727088453513235</v>
+        <v>0.3772976998082662</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4693313788516133</v>
+        <v>0.472678945740628</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>123</v>
@@ -906,19 +906,19 @@
         <v>137617</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>119021</v>
+        <v>119667</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>156541</v>
+        <v>157777</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4376371558278138</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3785002627969326</v>
+        <v>0.3805546587293603</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4978178768762903</v>
+        <v>0.5017489831136616</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>297</v>
@@ -927,19 +927,19 @@
         <v>322840</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>292375</v>
+        <v>293381</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>351305</v>
+        <v>349786</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4294994613597274</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3889699788853928</v>
+        <v>0.3903086180301774</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4673687908656773</v>
+        <v>0.4653481814369452</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>19407</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11241</v>
+        <v>11125</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30795</v>
+        <v>31196</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04438768525148078</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02571056091284504</v>
+        <v>0.02544534830694448</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07043553264069791</v>
+        <v>0.07135329017323799</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -977,19 +977,19 @@
         <v>11648</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5022</v>
+        <v>5824</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20873</v>
+        <v>21529</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0370422429739102</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01596914235005207</v>
+        <v>0.0185211717014579</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06637710517160804</v>
+        <v>0.06846352739797736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -998,19 +998,19 @@
         <v>31055</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20962</v>
+        <v>20432</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46208</v>
+        <v>44862</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04131476650449831</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02788689087083396</v>
+        <v>0.02718283798160909</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06147452442900928</v>
+        <v>0.05968389221109349</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>227915</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>207695</v>
+        <v>205268</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>249049</v>
+        <v>248127</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5473526328432421</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.498792778513407</v>
+        <v>0.4929642885357118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5981072419296333</v>
+        <v>0.5958932233331974</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>174</v>
@@ -1052,19 +1052,19 @@
         <v>193401</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>173352</v>
+        <v>173035</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>212259</v>
+        <v>212174</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.572174935759136</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5128604508994105</v>
+        <v>0.51192151176395</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6279653585628091</v>
+        <v>0.6277124249850656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>375</v>
@@ -1073,19 +1073,19 @@
         <v>421316</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>388209</v>
+        <v>392896</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>449598</v>
+        <v>449038</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5584742518939119</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5145887676595716</v>
+        <v>0.5208021530205067</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5959622583764063</v>
+        <v>0.5952210978807035</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>13045</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6123</v>
+        <v>6961</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22134</v>
+        <v>22376</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03132879515639109</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01470373911476932</v>
+        <v>0.01671708216340682</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05315642714285587</v>
+        <v>0.05373658806028186</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -1123,19 +1123,19 @@
         <v>12007</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6222</v>
+        <v>6701</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19859</v>
+        <v>19827</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03552357884681984</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01840804033759262</v>
+        <v>0.01982403411432087</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05875324167104837</v>
+        <v>0.058657290036747</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -1144,19 +1144,19 @@
         <v>25053</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16151</v>
+        <v>16568</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>36314</v>
+        <v>36892</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03320826566172601</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02140877169095899</v>
+        <v>0.02196177277976403</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04813591175000936</v>
+        <v>0.04890201543811876</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>168012</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>147043</v>
+        <v>147019</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>188401</v>
+        <v>188795</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4034913689060163</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3531345748018431</v>
+        <v>0.3530768946612721</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4524585317032453</v>
+        <v>0.4534044953867308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -1194,19 +1194,19 @@
         <v>117073</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>99324</v>
+        <v>99771</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135807</v>
+        <v>137873</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3463593215946114</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2938491217766139</v>
+        <v>0.2951712547127008</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4017830451052458</v>
+        <v>0.4078947602140927</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>258</v>
@@ -1215,19 +1215,19 @@
         <v>285085</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>259367</v>
+        <v>256515</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>320135</v>
+        <v>312012</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3778933868035806</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3438025042816675</v>
+        <v>0.3400226568277056</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4243540223163216</v>
+        <v>0.4135866027907492</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>8454</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3708</v>
+        <v>3668</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16445</v>
+        <v>16643</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02030169293515537</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008905888578024521</v>
+        <v>0.008807790996696829</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0394931375796739</v>
+        <v>0.03996813345136884</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1265,19 +1265,19 @@
         <v>16498</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10008</v>
+        <v>10237</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26851</v>
+        <v>25867</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04880826619287679</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02960773802418101</v>
+        <v>0.03028563080631688</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07943684413969009</v>
+        <v>0.07652658939868866</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -1286,19 +1286,19 @@
         <v>24951</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16233</v>
+        <v>16226</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37634</v>
+        <v>37562</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03307404726853942</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02151807514400658</v>
+        <v>0.02150791775516489</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04988495482723762</v>
+        <v>0.04979021968745523</v>
       </c>
     </row>
     <row r="12">
@@ -1319,19 +1319,19 @@
         <v>402739</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>376389</v>
+        <v>378966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>427699</v>
+        <v>427481</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6398628164498176</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5979974303714626</v>
+        <v>0.6020924763111619</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6795174997216333</v>
+        <v>0.6791719606004677</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>151</v>
@@ -1340,19 +1340,19 @@
         <v>162535</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>145790</v>
+        <v>145562</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>176928</v>
+        <v>178802</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.624825381786608</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5604526730108672</v>
+        <v>0.5595780841987543</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6801563473817933</v>
+        <v>0.6873589675975903</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>532</v>
@@ -1361,19 +1361,19 @@
         <v>565274</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>533659</v>
+        <v>534981</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>595042</v>
+        <v>594217</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6354654193458438</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5999243305730303</v>
+        <v>0.6014103202281893</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6689294002350589</v>
+        <v>0.668002342201616</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>12492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7193</v>
+        <v>6825</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21465</v>
+        <v>20408</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0198462945185941</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0114287554648854</v>
+        <v>0.01084344554092604</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03410369278733782</v>
+        <v>0.03242395784775523</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1411,19 +1411,19 @@
         <v>9098</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4261</v>
+        <v>4195</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17973</v>
+        <v>17903</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03497504648160884</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01638035313499825</v>
+        <v>0.01612756335635939</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0690922958328633</v>
+        <v>0.06882281561305503</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1432,19 +1432,19 @@
         <v>21590</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13810</v>
+        <v>13778</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33070</v>
+        <v>31496</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02427039554106861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01552490652658948</v>
+        <v>0.01548931003636712</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03717630359249299</v>
+        <v>0.03540680944815364</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>190726</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>164183</v>
+        <v>167814</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>214522</v>
+        <v>216121</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3030206868101251</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2608497057973279</v>
+        <v>0.2666189807373602</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3408283744537121</v>
+        <v>0.3433675083675031</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>70</v>
@@ -1482,19 +1482,19 @@
         <v>73245</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58191</v>
+        <v>59335</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>87778</v>
+        <v>88279</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2815700976095672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2236988336507509</v>
+        <v>0.2280966442270211</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3374408141510245</v>
+        <v>0.3393663793867247</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>245</v>
@@ -1503,19 +1503,19 @@
         <v>263970</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>234692</v>
+        <v>237102</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>291964</v>
+        <v>291584</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2967478908883683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2638346129233916</v>
+        <v>0.2665430278895801</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3282175371003517</v>
+        <v>0.3277909591511717</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>24499</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15572</v>
+        <v>15494</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>37142</v>
+        <v>38320</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03892397229053191</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02474021332862772</v>
+        <v>0.02461721250595719</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05901041351245429</v>
+        <v>0.06088199785689825</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>15</v>
@@ -1553,19 +1553,19 @@
         <v>15251</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9030</v>
+        <v>8979</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>24425</v>
+        <v>23844</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05862947412221597</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03471419455914116</v>
+        <v>0.03451776031372414</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09389400487702143</v>
+        <v>0.09166405300879195</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>38</v>
@@ -1574,19 +1574,19 @@
         <v>39751</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>28491</v>
+        <v>28616</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>53166</v>
+        <v>52969</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04468645230309696</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03202857747493598</v>
+        <v>0.03216928321226043</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05976819728113381</v>
+        <v>0.05954657357745671</v>
       </c>
     </row>
     <row r="16">
@@ -1607,19 +1607,19 @@
         <v>796096</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>761889</v>
+        <v>762923</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>829754</v>
+        <v>828441</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6880039283993328</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6584412577437019</v>
+        <v>0.6593346438360448</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7170916034701225</v>
+        <v>0.7159567787875367</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>453</v>
@@ -1628,19 +1628,19 @@
         <v>491170</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>463283</v>
+        <v>462034</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>519638</v>
+        <v>516057</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6414947268792959</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.605072974624397</v>
+        <v>0.6034420776331452</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.678675975741755</v>
+        <v>0.6739989251339883</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1195</v>
@@ -1649,19 +1649,19 @@
         <v>1287267</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1245666</v>
+        <v>1245387</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1325024</v>
+        <v>1330184</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6694835737066684</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.647847785884838</v>
+        <v>0.6477028190809117</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6891202801698929</v>
+        <v>0.6918036882305495</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>32721</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22559</v>
+        <v>21832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47336</v>
+        <v>45240</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02827839127244499</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01949573408022696</v>
+        <v>0.01886743149395033</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04090854483052955</v>
+        <v>0.03909724279610931</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -1699,19 +1699,19 @@
         <v>17810</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10190</v>
+        <v>10603</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28736</v>
+        <v>27573</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02326059482481868</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01330914983882046</v>
+        <v>0.01384818745110795</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03753042071485251</v>
+        <v>0.03601213248276832</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -1720,19 +1720,19 @@
         <v>50531</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36865</v>
+        <v>36994</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65805</v>
+        <v>65743</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02628026258073666</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01917267008485781</v>
+        <v>0.01923999920328051</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0342241148239067</v>
+        <v>0.03419168152286042</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>277343</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>247966</v>
+        <v>249158</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>307856</v>
+        <v>307843</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2396860245008844</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2142980280126549</v>
+        <v>0.2153279507304652</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2660558653794258</v>
+        <v>0.2660445709960614</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>211</v>
@@ -1770,19 +1770,19 @@
         <v>221825</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>195938</v>
+        <v>196685</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>250046</v>
+        <v>249257</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2897156423792122</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2559055884725948</v>
+        <v>0.2568813880127822</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3265737186191452</v>
+        <v>0.3255432885543145</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>470</v>
@@ -1791,19 +1791,19 @@
         <v>499168</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>460114</v>
+        <v>463651</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>536720</v>
+        <v>539878</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2596082385566538</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2392964711588049</v>
+        <v>0.241136230636388</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.279138064598016</v>
+        <v>0.2807805715107635</v>
       </c>
     </row>
     <row r="19">
@@ -1820,19 +1820,19 @@
         <v>54062</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40188</v>
+        <v>39721</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70948</v>
+        <v>69577</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0467216040435401</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03473101850901728</v>
+        <v>0.03432770222770978</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06131442542481217</v>
+        <v>0.06012991950712279</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -1841,19 +1841,19 @@
         <v>35904</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24075</v>
+        <v>24175</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50566</v>
+        <v>49347</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04689277827533254</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03144340326690962</v>
+        <v>0.03157446486870106</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06604166773452583</v>
+        <v>0.06444953508263331</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -1862,19 +1862,19 @@
         <v>89966</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72410</v>
+        <v>71961</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110704</v>
+        <v>109299</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04678976706039333</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03765914802953393</v>
+        <v>0.03742564064578397</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05757490211675594</v>
+        <v>0.05684432761583828</v>
       </c>
     </row>
     <row r="20">
@@ -1895,19 +1895,19 @@
         <v>379520</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>359094</v>
+        <v>358440</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>399514</v>
+        <v>399191</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7461047218899342</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7059492013224462</v>
+        <v>0.7046632648737927</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7854122926643191</v>
+        <v>0.784776744194453</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>493</v>
@@ -1916,19 +1916,19 @@
         <v>537639</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>511454</v>
+        <v>510198</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>564812</v>
+        <v>565309</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7070499016937712</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6726142148851655</v>
+        <v>0.6709631027701112</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7427856380257243</v>
+        <v>0.743439069303252</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>856</v>
@@ -1937,19 +1937,19 @@
         <v>917158</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>883213</v>
+        <v>883232</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>949155</v>
+        <v>949075</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7227039013095437</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6959554763236686</v>
+        <v>0.6959707941713215</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7479170847786705</v>
+        <v>0.7478534567245892</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>9090</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4114</v>
+        <v>4098</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16201</v>
+        <v>16342</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01786934533523916</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.008087363949518901</v>
+        <v>0.00805728253756224</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03185019136072546</v>
+        <v>0.03212705424411844</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -1987,19 +1987,19 @@
         <v>13500</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7271</v>
+        <v>7337</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23686</v>
+        <v>23307</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01775341088887044</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.009562054809693044</v>
+        <v>0.009648470876882153</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03115016310276846</v>
+        <v>0.03065054592762364</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>21</v>
@@ -2008,19 +2008,19 @@
         <v>22589</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14782</v>
+        <v>14064</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33558</v>
+        <v>34299</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01779987987195103</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01164758815110394</v>
+        <v>0.01108206772008656</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02644339254668107</v>
+        <v>0.02702663441999591</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>97281</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>79354</v>
+        <v>79258</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>115780</v>
+        <v>115669</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1912473498897863</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1560028330512333</v>
+        <v>0.1558148144113812</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2276146341658255</v>
+        <v>0.227395724897388</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>174</v>
@@ -2058,19 +2058,19 @@
         <v>184325</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>158776</v>
+        <v>158198</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>208170</v>
+        <v>209857</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2424058803727873</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2088063924518944</v>
+        <v>0.208046030274199</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2737644945764098</v>
+        <v>0.2759834336956093</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>266</v>
@@ -2079,19 +2079,19 @@
         <v>281606</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>254872</v>
+        <v>251905</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>314982</v>
+        <v>313012</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2219004571624903</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2008341585767544</v>
+        <v>0.1984964146028028</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2482001950037782</v>
+        <v>0.2466475702781521</v>
       </c>
     </row>
     <row r="23">
@@ -2108,19 +2108,19 @@
         <v>24931</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16431</v>
+        <v>15969</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>35557</v>
+        <v>35616</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04901202369951902</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03230198408515857</v>
+        <v>0.03139460465201895</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06990163109318623</v>
+        <v>0.07001728452458757</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -2129,19 +2129,19 @@
         <v>30402</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>20932</v>
+        <v>20819</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43833</v>
+        <v>42660</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03998148439570826</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02752751376673885</v>
+        <v>0.02737962041206059</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05764449485124298</v>
+        <v>0.05610167414264591</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>51</v>
@@ -2150,19 +2150,19 @@
         <v>55333</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>42387</v>
+        <v>41297</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>71814</v>
+        <v>69734</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04360111593112523</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03340005946216369</v>
+        <v>0.03254145990952965</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05658839472232079</v>
+        <v>0.05494949740216494</v>
       </c>
     </row>
     <row r="24">
@@ -2183,19 +2183,19 @@
         <v>146959</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>130627</v>
+        <v>130599</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>162872</v>
+        <v>163991</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.552440891253103</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4910474181518614</v>
+        <v>0.4909427590133752</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6122601890548526</v>
+        <v>0.6164693158210288</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>719</v>
@@ -2204,19 +2204,19 @@
         <v>768597</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>734284</v>
+        <v>736336</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>797417</v>
+        <v>797810</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6941426237904808</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.663153761504673</v>
+        <v>0.6650063272551343</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.720171080463166</v>
+        <v>0.7205260100082704</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>866</v>
@@ -2225,19 +2225,19 @@
         <v>915556</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>881044</v>
+        <v>877946</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>953973</v>
+        <v>950436</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6666936780921929</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6415626563922843</v>
+        <v>0.6393070817104174</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6946687827036293</v>
+        <v>0.6920929295437283</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>11449</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5576</v>
+        <v>6181</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18403</v>
+        <v>19592</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04303876613484621</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02095974177411467</v>
+        <v>0.02323709054435449</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06918130878258573</v>
+        <v>0.07364905607135958</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -2275,19 +2275,19 @@
         <v>26347</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17784</v>
+        <v>17216</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38278</v>
+        <v>38042</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0237943326960555</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01606110695095354</v>
+        <v>0.01554813721574814</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03456965270223028</v>
+        <v>0.03435723311835067</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -2296,19 +2296,19 @@
         <v>37796</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26706</v>
+        <v>27482</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52128</v>
+        <v>52654</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02752215873598301</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01944715070546607</v>
+        <v>0.02001166189916626</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03795881617140956</v>
+        <v>0.0383420105357872</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>96846</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>81942</v>
+        <v>81279</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>113433</v>
+        <v>113750</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3640589877909797</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3080321145865206</v>
+        <v>0.305542269695872</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4264133087380531</v>
+        <v>0.4276051321937988</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>258</v>
@@ -2346,19 +2346,19 @@
         <v>269808</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>243204</v>
+        <v>241406</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>300607</v>
+        <v>300475</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.243671575908645</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2196451042559136</v>
+        <v>0.2180204618852878</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2714868868889835</v>
+        <v>0.2713682417867416</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>354</v>
@@ -2367,19 +2367,19 @@
         <v>366654</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>334481</v>
+        <v>338011</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>401749</v>
+        <v>400840</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.266991739129966</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2435639900098045</v>
+        <v>0.2461345899657778</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2925472243658519</v>
+        <v>0.2918856234682313</v>
       </c>
     </row>
     <row r="27">
@@ -2396,19 +2396,19 @@
         <v>10763</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5807</v>
+        <v>4933</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19679</v>
+        <v>19966</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04046135482107098</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02183103493800754</v>
+        <v>0.01854221410694291</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07397686431920535</v>
+        <v>0.07505417419220285</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>47</v>
@@ -2417,19 +2417,19 @@
         <v>49872</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>37842</v>
+        <v>37362</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>65438</v>
+        <v>64422</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04504114320943575</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03417601033049583</v>
+        <v>0.03374259309721196</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05909855905181734</v>
+        <v>0.05818111983974774</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>57</v>
@@ -2438,19 +2438,19 @@
         <v>60636</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>46389</v>
+        <v>46553</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>77492</v>
+        <v>79244</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04415399553289825</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0337799429518978</v>
+        <v>0.03389953752290426</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0564285742506539</v>
+        <v>0.05770417526134632</v>
       </c>
     </row>
     <row r="28">
@@ -2471,19 +2471,19 @@
         <v>2158968</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2100301</v>
+        <v>2101698</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2215319</v>
+        <v>2216680</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6322356795400538</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6150556575845251</v>
+        <v>0.6154646001780146</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6487374919123862</v>
+        <v>0.6491362014390686</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2127</v>
@@ -2492,19 +2492,19 @@
         <v>2305859</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2243448</v>
+        <v>2250257</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2359615</v>
+        <v>2358142</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6502855243579995</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6326847904446784</v>
+        <v>0.634605021925153</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6654455288162893</v>
+        <v>0.6650301693839161</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4149</v>
@@ -2513,19 +2513,19 @@
         <v>4464827</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4379054</v>
+        <v>4385007</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4549637</v>
+        <v>4543994</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6414305830448062</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6291081547099767</v>
+        <v>0.6299633922167517</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6536146227199137</v>
+        <v>0.6528038979455393</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>107529</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>88390</v>
+        <v>88193</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>129105</v>
+        <v>128954</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03148906571399628</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02588436375598046</v>
+        <v>0.02582655081037999</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0378072955986541</v>
+        <v>0.03776316147065144</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>90</v>
@@ -2563,19 +2563,19 @@
         <v>95576</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>78186</v>
+        <v>76599</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>117660</v>
+        <v>117891</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02695373375697572</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02204954407725956</v>
+        <v>0.02160201396834874</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03318186315857764</v>
+        <v>0.03324706057941273</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>194</v>
@@ -2584,19 +2584,19 @@
         <v>203105</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>174907</v>
+        <v>177598</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>231916</v>
+        <v>234907</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02917868908043306</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02512761607498167</v>
+        <v>0.02551427334830061</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03331778864804204</v>
+        <v>0.03374744318099307</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>1015430</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>961092</v>
+        <v>960171</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1071679</v>
+        <v>1070923</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2973603181909278</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2814478333501296</v>
+        <v>0.2811780129245573</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3138322469194107</v>
+        <v>0.3136108002422603</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>940</v>
@@ -2634,19 +2634,19 @@
         <v>1003893</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>953750</v>
+        <v>950286</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1060686</v>
+        <v>1057831</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2831122269612675</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2689712645357137</v>
+        <v>0.2679944367385232</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2991286270160236</v>
+        <v>0.2983236837533388</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1890</v>
@@ -2655,19 +2655,19 @@
         <v>2019323</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1940000</v>
+        <v>1941467</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2098585</v>
+        <v>2097839</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2901020937959246</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2787062800363077</v>
+        <v>0.2789170449091958</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3014890194723004</v>
+        <v>0.3013819097325239</v>
       </c>
     </row>
     <row r="31">
@@ -2684,19 +2684,19 @@
         <v>142116</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>118293</v>
+        <v>119832</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>168017</v>
+        <v>168949</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04161745162128651</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03464110860795239</v>
+        <v>0.03509179481564262</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04920223331824938</v>
+        <v>0.04947544580408406</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>146</v>
@@ -2705,19 +2705,19 @@
         <v>159575</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>136981</v>
+        <v>136291</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>186270</v>
+        <v>186759</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04500255015678057</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03863066560972814</v>
+        <v>0.03843611856291751</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0525309228999358</v>
+        <v>0.05266862712649129</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>277</v>
@@ -2726,19 +2726,19 @@
         <v>301691</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>270382</v>
+        <v>268562</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>346145</v>
+        <v>339946</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04334187943226694</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03884392100543137</v>
+        <v>0.03858235930055899</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04972828712713542</v>
+        <v>0.048837706331441</v>
       </c>
     </row>
     <row r="32">
@@ -3001,19 +3001,19 @@
         <v>202047</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>178205</v>
+        <v>182053</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>223789</v>
+        <v>224200</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4708713530728411</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4153076131297714</v>
+        <v>0.4242754997094275</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5215403652670255</v>
+        <v>0.5224989192083933</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>141</v>
@@ -3022,19 +3022,19 @@
         <v>143194</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>125430</v>
+        <v>125803</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>162413</v>
+        <v>163369</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4125977573371962</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3614125899188093</v>
+        <v>0.362486285824249</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4679745800085472</v>
+        <v>0.4707295625312866</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>329</v>
@@ -3043,19 +3043,19 @@
         <v>345241</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>314007</v>
+        <v>315774</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>373200</v>
+        <v>376797</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4448142537285709</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4045713811104731</v>
+        <v>0.406847709691493</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4808361051036418</v>
+        <v>0.4854714802220628</v>
       </c>
     </row>
     <row r="5">
@@ -3072,19 +3072,19 @@
         <v>33246</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22713</v>
+        <v>23396</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46466</v>
+        <v>45863</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07748047749807208</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05293238741021338</v>
+        <v>0.05452543375131311</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1082894220409196</v>
+        <v>0.1068840062657795</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -3093,19 +3093,19 @@
         <v>20510</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12916</v>
+        <v>12402</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30922</v>
+        <v>30316</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05909653493380611</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03721725162666562</v>
+        <v>0.03573406558075452</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08909904682655946</v>
+        <v>0.08735224700522241</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -3114,19 +3114,19 @@
         <v>53756</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40218</v>
+        <v>40587</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68682</v>
+        <v>71490</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06926007833290744</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05181798520280508</v>
+        <v>0.05229315202535214</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08849128946436437</v>
+        <v>0.09210874315121438</v>
       </c>
     </row>
     <row r="6">
@@ -3143,19 +3143,19 @@
         <v>150349</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>129972</v>
+        <v>130161</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>171708</v>
+        <v>169205</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.350388861786753</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.302899671928773</v>
+        <v>0.3033412475454775</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4001658090026176</v>
+        <v>0.3943336270804104</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>139</v>
@@ -3164,19 +3164,19 @@
         <v>149958</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>131166</v>
+        <v>131318</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>167830</v>
+        <v>168984</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4320875638894954</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.377940336183731</v>
+        <v>0.3783769841333018</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4835825430606908</v>
+        <v>0.4869077931793171</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>280</v>
@@ -3185,19 +3185,19 @@
         <v>300307</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>274200</v>
+        <v>268427</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>329887</v>
+        <v>327976</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3869205219686033</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.353284104115693</v>
+        <v>0.3458451255422179</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4250317478336455</v>
+        <v>0.4225695479841245</v>
       </c>
     </row>
     <row r="7">
@@ -3214,19 +3214,19 @@
         <v>43450</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31384</v>
+        <v>31570</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59851</v>
+        <v>59341</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1012593076423338</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07314118955190192</v>
+        <v>0.07357393817041653</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1394831035424929</v>
+        <v>0.1382954172699594</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -3235,19 +3235,19 @@
         <v>33393</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23979</v>
+        <v>23661</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45772</v>
+        <v>45390</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09621814383950229</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06909334769066011</v>
+        <v>0.06817559928137508</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.131887227906203</v>
+        <v>0.1307874104467141</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>69</v>
@@ -3256,19 +3256,19 @@
         <v>76843</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60224</v>
+        <v>60035</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94719</v>
+        <v>95095</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09900514596991841</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0775939305329551</v>
+        <v>0.07735027110854086</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1220377106189034</v>
+        <v>0.1225223541660472</v>
       </c>
     </row>
     <row r="8">
@@ -3289,19 +3289,19 @@
         <v>194771</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174717</v>
+        <v>174250</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>215435</v>
+        <v>213493</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5163234280420216</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.463161502023672</v>
+        <v>0.4619239881911874</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.571101952856487</v>
+        <v>0.5659548871925991</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>175</v>
@@ -3310,19 +3310,19 @@
         <v>183366</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>161066</v>
+        <v>162365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>203218</v>
+        <v>201666</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4925568332424348</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4326552539834343</v>
+        <v>0.4361455406770772</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5458834828602585</v>
+        <v>0.5417165126990807</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>359</v>
@@ -3331,19 +3331,19 @@
         <v>378137</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>350530</v>
+        <v>348702</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>408908</v>
+        <v>404509</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5045186717833295</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4676850818036507</v>
+        <v>0.4652457432570203</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5455745777721203</v>
+        <v>0.5397048208369118</v>
       </c>
     </row>
     <row r="9">
@@ -3360,19 +3360,19 @@
         <v>17470</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10911</v>
+        <v>10391</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27527</v>
+        <v>27728</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04631244047154277</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02892421400207403</v>
+        <v>0.02754549335046417</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07297328428575642</v>
+        <v>0.0735045504495903</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -3381,19 +3381,19 @@
         <v>13906</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7980</v>
+        <v>8047</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23593</v>
+        <v>23584</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03735530945701581</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0214367536408691</v>
+        <v>0.02161489030956889</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06337521946459482</v>
+        <v>0.06335055450099475</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>30</v>
@@ -3402,19 +3402,19 @@
         <v>31377</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>21321</v>
+        <v>21559</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>43854</v>
+        <v>43747</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04186347547275802</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0284464426181113</v>
+        <v>0.02876499908060503</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05851136241401059</v>
+        <v>0.05836844418272669</v>
       </c>
     </row>
     <row r="10">
@@ -3431,19 +3431,19 @@
         <v>124116</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>105499</v>
+        <v>105231</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143783</v>
+        <v>143870</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3290210717005471</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2796703030410911</v>
+        <v>0.2789593323782473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3811578346062269</v>
+        <v>0.3813891021961147</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>133</v>
@@ -3452,19 +3452,19 @@
         <v>142541</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>123329</v>
+        <v>124500</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>162994</v>
+        <v>163287</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3828946601880291</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3312874786407628</v>
+        <v>0.3344330839016945</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4378350131178386</v>
+        <v>0.4386210109590455</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>249</v>
@@ -3473,19 +3473,19 @@
         <v>266657</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>241089</v>
+        <v>240875</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>296299</v>
+        <v>296215</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3557798306325106</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3216665633255916</v>
+        <v>0.3213807800948422</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3953294702664918</v>
+        <v>0.3952168721378876</v>
       </c>
     </row>
     <row r="11">
@@ -3502,19 +3502,19 @@
         <v>40870</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30284</v>
+        <v>29772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54815</v>
+        <v>55000</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1083430597858886</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08027925123987459</v>
+        <v>0.07892354162509133</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1453097439246605</v>
+        <v>0.1458017332239305</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -3523,19 +3523,19 @@
         <v>34490</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24324</v>
+        <v>25079</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47131</v>
+        <v>46993</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09264667032420446</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06533908751088162</v>
+        <v>0.0673673934882902</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1266026553527349</v>
+        <v>0.1262327822328416</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>70</v>
@@ -3544,19 +3544,19 @@
         <v>75360</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58150</v>
+        <v>59206</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>91030</v>
+        <v>93159</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1005467366988343</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07758566564869572</v>
+        <v>0.07899408409267131</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.12145368712759</v>
+        <v>0.1242951417095002</v>
       </c>
     </row>
     <row r="12">
@@ -3577,19 +3577,19 @@
         <v>276831</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>254428</v>
+        <v>253563</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>298395</v>
+        <v>298610</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5304143595126929</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4874894511708885</v>
+        <v>0.4858331187530369</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5717323737750293</v>
+        <v>0.5721438142691287</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>85</v>
@@ -3598,19 +3598,19 @@
         <v>92170</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79642</v>
+        <v>79428</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>105731</v>
+        <v>105394</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5548321040709705</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4794139751570687</v>
+        <v>0.4781303951767841</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6364620371224429</v>
+        <v>0.6344342807026546</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>355</v>
@@ -3619,19 +3619,19 @@
         <v>369001</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>340796</v>
+        <v>341635</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>393762</v>
+        <v>396479</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.536309895907725</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4953168679176501</v>
+        <v>0.4965368570973639</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5722979758424706</v>
+        <v>0.5762467867337886</v>
       </c>
     </row>
     <row r="13">
@@ -3648,19 +3648,19 @@
         <v>10933</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5914</v>
+        <v>5514</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19772</v>
+        <v>18573</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02094865317109376</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01133085961399256</v>
+        <v>0.01056535144752346</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03788418202200275</v>
+        <v>0.03558719931403045</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3669,19 +3669,19 @@
         <v>2801</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7501</v>
+        <v>7853</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01685827302702376</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005351467477017293</v>
+        <v>0.005277225391926689</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0451529241635879</v>
+        <v>0.04727484020826942</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -3690,19 +3690,19 @@
         <v>13734</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8022</v>
+        <v>7853</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23253</v>
+        <v>22024</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01996105233223142</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0116590318565254</v>
+        <v>0.01141394052364071</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03379629263916008</v>
+        <v>0.03200994949273125</v>
       </c>
     </row>
     <row r="14">
@@ -3719,19 +3719,19 @@
         <v>157178</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>135426</v>
+        <v>137095</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>177672</v>
+        <v>179128</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3011578124814829</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2594794375612139</v>
+        <v>0.2626779529041394</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3404234302253094</v>
+        <v>0.3432141955924365</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -3740,19 +3740,19 @@
         <v>56861</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45232</v>
+        <v>44199</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>69680</v>
+        <v>70597</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3422855039846727</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2722773962908733</v>
+        <v>0.266061837920753</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4194485720914497</v>
+        <v>0.4249702605090708</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>203</v>
@@ -3761,19 +3761,19 @@
         <v>214040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>191663</v>
+        <v>190761</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>242012</v>
+        <v>241979</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3110878779517808</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2785651852056651</v>
+        <v>0.2772549585219819</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3517432809033059</v>
+        <v>0.3516952870154266</v>
       </c>
     </row>
     <row r="15">
@@ -3790,19 +3790,19 @@
         <v>78956</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>62739</v>
+        <v>61269</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>97719</v>
+        <v>95781</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1512813484123245</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1202085508043917</v>
+        <v>0.1173938228156142</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1872312272823743</v>
+        <v>0.1835190585216346</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>13</v>
@@ -3811,19 +3811,19 @@
         <v>14291</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8088</v>
+        <v>8133</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>22758</v>
+        <v>22518</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0860241189173331</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04868704890247438</v>
+        <v>0.04895999041989557</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.136992262667245</v>
+        <v>0.1355495478289329</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>85</v>
@@ -3832,19 +3832,19 @@
         <v>93246</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>74086</v>
+        <v>75639</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>113816</v>
+        <v>112639</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1355253325113283</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.107677718767936</v>
+        <v>0.1099341936624645</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1654212611128054</v>
+        <v>0.1637112083587011</v>
       </c>
     </row>
     <row r="16">
@@ -3865,19 +3865,19 @@
         <v>627112</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>593965</v>
+        <v>594739</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>659812</v>
+        <v>662006</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5454868714512894</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.516653718959649</v>
+        <v>0.5173272930645305</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5739301179579479</v>
+        <v>0.5758383862530019</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>424</v>
@@ -3886,19 +3886,19 @@
         <v>435523</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>406874</v>
+        <v>404127</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>462896</v>
+        <v>461707</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5273469895561185</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4926580978422318</v>
+        <v>0.4893318125232091</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5604909478995377</v>
+        <v>0.5590515084016612</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1036</v>
@@ -3907,19 +3907,19 @@
         <v>1062636</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1013531</v>
+        <v>1018721</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1105871</v>
+        <v>1109452</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5379033823985699</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5130465091065012</v>
+        <v>0.5156738970948624</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5597891898207109</v>
+        <v>0.5616016209159365</v>
       </c>
     </row>
     <row r="17">
@@ -3936,19 +3936,19 @@
         <v>12048</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6310</v>
+        <v>7013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20189</v>
+        <v>21120</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01048023536917543</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005488369542349464</v>
+        <v>0.006100591824878245</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01756086788471541</v>
+        <v>0.0183712901681369</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -3957,19 +3957,19 @@
         <v>10690</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5749</v>
+        <v>5662</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19727</v>
+        <v>18555</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01294422788971632</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006961076502325542</v>
+        <v>0.006855265474738994</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02388562919746496</v>
+        <v>0.02246721233885488</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -3978,19 +3978,19 @@
         <v>22739</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15098</v>
+        <v>15549</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33589</v>
+        <v>33653</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01151032257776299</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007642532826708832</v>
+        <v>0.007871098629492855</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01700281729334153</v>
+        <v>0.01703521478721228</v>
       </c>
     </row>
     <row r="18">
@@ -4007,19 +4007,19 @@
         <v>323652</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>293804</v>
+        <v>293631</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>356582</v>
+        <v>354816</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2815254389853634</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2555625442309701</v>
+        <v>0.2554116882173038</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3101685731970758</v>
+        <v>0.3086326606788184</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>243</v>
@@ -4028,19 +4028,19 @@
         <v>256300</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>230144</v>
+        <v>230895</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>283180</v>
+        <v>284538</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3103371555158132</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2786666319779376</v>
+        <v>0.279576128735938</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3428846004642615</v>
+        <v>0.3445289998056802</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>549</v>
@@ -4049,19 +4049,19 @@
         <v>579952</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>541222</v>
+        <v>542214</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>624722</v>
+        <v>623130</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2935703540604109</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2739650801483876</v>
+        <v>0.2744671711073767</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3162326563473196</v>
+        <v>0.3154267773886703</v>
       </c>
     </row>
     <row r="19">
@@ -4078,19 +4078,19 @@
         <v>187940</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>164244</v>
+        <v>162784</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>214071</v>
+        <v>213064</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1634773351658685</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.142865905101728</v>
+        <v>0.1415957089702674</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1862075809696126</v>
+        <v>0.1853312214989431</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -4099,19 +4099,19 @@
         <v>126230</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106185</v>
+        <v>106251</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>146277</v>
+        <v>147211</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1528437055338197</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1285729219358205</v>
+        <v>0.1286526148145223</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1771169663181884</v>
+        <v>0.1782484551298134</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>297</v>
@@ -4120,19 +4120,19 @@
         <v>314170</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>280279</v>
+        <v>279810</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>348120</v>
+        <v>348617</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1590318809798198</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.141876476579467</v>
+        <v>0.1416389220414341</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1762173909500172</v>
+        <v>0.1764690808811573</v>
       </c>
     </row>
     <row r="20">
@@ -4153,19 +4153,19 @@
         <v>360843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>334616</v>
+        <v>336392</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>386159</v>
+        <v>383761</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5813423541104845</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.539090131444469</v>
+        <v>0.5419505905960357</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6221282810598254</v>
+        <v>0.6182659886977345</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>420</v>
@@ -4174,19 +4174,19 @@
         <v>439556</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>409730</v>
+        <v>411797</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>466236</v>
+        <v>468701</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5954080719167612</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5550066091864573</v>
+        <v>0.557805798855132</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6315477455524102</v>
+        <v>0.6348865599758521</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>774</v>
@@ -4195,19 +4195,19 @@
         <v>800399</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>765320</v>
+        <v>763310</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>838050</v>
+        <v>836754</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5889834987588114</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5631703793508408</v>
+        <v>0.5616906465574177</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6166893132515888</v>
+        <v>0.615735376609542</v>
       </c>
     </row>
     <row r="21">
@@ -4224,19 +4224,19 @@
         <v>6221</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2521</v>
+        <v>2583</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13358</v>
+        <v>13514</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01002310305913255</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004060845343010239</v>
+        <v>0.004162060288689908</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02152040557988164</v>
+        <v>0.02177234725212171</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -4245,19 +4245,19 @@
         <v>12339</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6480</v>
+        <v>6428</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20425</v>
+        <v>21486</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01671356230811149</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008777147346738652</v>
+        <v>0.008707264446429639</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02766725522644045</v>
+        <v>0.02910389101512964</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -4266,19 +4266,19 @@
         <v>18560</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10946</v>
+        <v>11712</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29039</v>
+        <v>29540</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01365766814776042</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008054462439488074</v>
+        <v>0.008618114833116617</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02136866386976352</v>
+        <v>0.02173732370978017</v>
       </c>
     </row>
     <row r="22">
@@ -4295,19 +4295,19 @@
         <v>122714</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>103255</v>
+        <v>103166</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>143169</v>
+        <v>143559</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1977007621426995</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1663511901822994</v>
+        <v>0.1662069301386731</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.230655256750483</v>
+        <v>0.2312831762264269</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>145</v>
@@ -4316,19 +4316,19 @@
         <v>156800</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>135022</v>
+        <v>135162</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>178625</v>
+        <v>182222</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2123963136644363</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1828962900489149</v>
+        <v>0.1830857320026142</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2419592467092853</v>
+        <v>0.2468320247670024</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>261</v>
@@ -4337,19 +4337,19 @@
         <v>279514</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>248568</v>
+        <v>250501</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>308935</v>
+        <v>309365</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2056840614247612</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1829121326800639</v>
+        <v>0.1843345437702515</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2273339612704624</v>
+        <v>0.2276497734838772</v>
       </c>
     </row>
     <row r="23">
@@ -4366,19 +4366,19 @@
         <v>131947</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>110985</v>
+        <v>112357</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>153682</v>
+        <v>152552</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2125751967828595</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1788046025186524</v>
+        <v>0.1810149381046239</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2475920374955616</v>
+        <v>0.2457709605130113</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>122</v>
@@ -4387,19 +4387,19 @@
         <v>129549</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>111770</v>
+        <v>111172</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>151510</v>
+        <v>153287</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1754820521106911</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1514001525020563</v>
+        <v>0.1505892051673564</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2052302384958042</v>
+        <v>0.2076379057618022</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>244</v>
@@ -4408,19 +4408,19 @@
         <v>261495</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>228751</v>
+        <v>235184</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>289937</v>
+        <v>292963</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1924244950693021</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.168329428595156</v>
+        <v>0.1730633109382456</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2133533646319201</v>
+        <v>0.2155802960839129</v>
       </c>
     </row>
     <row r="24">
@@ -4441,19 +4441,19 @@
         <v>136730</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>118724</v>
+        <v>119492</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>153425</v>
+        <v>154043</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4761696765745546</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4134618858078035</v>
+        <v>0.4161398581847944</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5343107840171768</v>
+        <v>0.5364651802917266</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>506</v>
@@ -4462,19 +4462,19 @@
         <v>551439</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>517662</v>
+        <v>518624</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>585557</v>
+        <v>585547</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5096362015899508</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4784192625975733</v>
+        <v>0.4793082854375212</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.541167578693442</v>
+        <v>0.5411583598040718</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>637</v>
@@ -4483,19 +4483,19 @@
         <v>688169</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>650460</v>
+        <v>648517</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>725167</v>
+        <v>724538</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5026175331539461</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4750760330650414</v>
+        <v>0.4736570036647084</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5296399349082463</v>
+        <v>0.529180368413766</v>
       </c>
     </row>
     <row r="25">
@@ -4512,19 +4512,19 @@
         <v>15086</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8907</v>
+        <v>9313</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24529</v>
+        <v>24238</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05253716530501451</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03102054530451575</v>
+        <v>0.03243157823738953</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08542463270456152</v>
+        <v>0.08441044798302923</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -4533,19 +4533,19 @@
         <v>26688</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17580</v>
+        <v>17140</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39781</v>
+        <v>39394</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02466443817238565</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01624753403408289</v>
+        <v>0.01584090045355516</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03676517471337898</v>
+        <v>0.03640760457991188</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -4554,19 +4554,19 @@
         <v>41773</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30314</v>
+        <v>28663</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56780</v>
+        <v>56622</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03050996381513337</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02214016816457249</v>
+        <v>0.0209344777115373</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04147035379197846</v>
+        <v>0.04135474865850464</v>
       </c>
     </row>
     <row r="26">
@@ -4583,19 +4583,19 @@
         <v>89285</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75417</v>
+        <v>74332</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>106938</v>
+        <v>107405</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3109400910286103</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2626443028880295</v>
+        <v>0.2588663857583659</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3724182996552139</v>
+        <v>0.3740434878963774</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>301</v>
@@ -4604,19 +4604,19 @@
         <v>329218</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>296438</v>
+        <v>298828</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>359475</v>
+        <v>360567</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3042605967621355</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2739663251663269</v>
+        <v>0.2761748605836528</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3322241936384578</v>
+        <v>0.333233523006163</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>385</v>
@@ -4625,19 +4625,19 @@
         <v>418502</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>385716</v>
+        <v>383956</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>455970</v>
+        <v>455048</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3056614340332598</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2817153207205307</v>
+        <v>0.2804299956676085</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3330262342406757</v>
+        <v>0.3323530732864209</v>
       </c>
     </row>
     <row r="27">
@@ -4654,19 +4654,19 @@
         <v>46045</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>35255</v>
+        <v>34631</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>60644</v>
+        <v>59779</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1603530670918205</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1227772425594055</v>
+        <v>0.1206045392187432</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2111948772934965</v>
+        <v>0.2081845089407765</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>163</v>
@@ -4675,19 +4675,19 @@
         <v>176842</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>154849</v>
+        <v>153839</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>205140</v>
+        <v>203516</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1634365101986063</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.143110251284132</v>
+        <v>0.1421771936568336</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1895889911510099</v>
+        <v>0.1880878512180498</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>205</v>
@@ -4696,19 +4696,19 @@
         <v>222887</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>196031</v>
+        <v>194820</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>251686</v>
+        <v>253485</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1627898441704526</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.143175088020821</v>
+        <v>0.14229055295445</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1838238539965865</v>
+        <v>0.1851377618628239</v>
       </c>
     </row>
     <row r="28">
@@ -4729,19 +4729,19 @@
         <v>1798334</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1740836</v>
+        <v>1740286</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1856847</v>
+        <v>1858079</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.531152232192628</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5141699387174077</v>
+        <v>0.5140072607547801</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5484345764946567</v>
+        <v>0.5487985997715062</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1751</v>
@@ -4750,19 +4750,19 @@
         <v>1845249</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1787356</v>
+        <v>1779036</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1901631</v>
+        <v>1900670</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5224971552810882</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.506104458709762</v>
+        <v>0.5037485695958682</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5384622818573942</v>
+        <v>0.5381901787255481</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3490</v>
@@ -4771,19 +4771,19 @@
         <v>3643583</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3557880</v>
+        <v>3552936</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3728490</v>
+        <v>3724273</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5267334337950615</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5143438515174946</v>
+        <v>0.5136291584654961</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.539008078637023</v>
+        <v>0.5383984400122033</v>
       </c>
     </row>
     <row r="29">
@@ -4800,19 +4800,19 @@
         <v>95006</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>77155</v>
+        <v>76772</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>115654</v>
+        <v>115230</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02806066822228879</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02278845380584964</v>
+        <v>0.02267527024455309</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03415932951373737</v>
+        <v>0.03403395433757036</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>83</v>
@@ -4821,19 +4821,19 @@
         <v>86933</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>68964</v>
+        <v>68773</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>107554</v>
+        <v>109137</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02461584719927819</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01952758706409083</v>
+        <v>0.01947362267543717</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03045490579991753</v>
+        <v>0.03090307049212629</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>174</v>
@@ -4842,19 +4842,19 @@
         <v>181939</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>157841</v>
+        <v>155393</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>211476</v>
+        <v>211547</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02630193519519266</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02281824645522483</v>
+        <v>0.02246431571149577</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03057193818441999</v>
+        <v>0.03058226646931766</v>
       </c>
     </row>
     <row r="30">
@@ -4871,19 +4871,19 @@
         <v>967294</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>913977</v>
+        <v>917789</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1026365</v>
+        <v>1023125</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2856981367734762</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2699502946086993</v>
+        <v>0.2710764146118702</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3031451905393369</v>
+        <v>0.3021880682888078</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1013</v>
@@ -4892,19 +4892,19 @@
         <v>1091679</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1037549</v>
+        <v>1035724</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1148967</v>
+        <v>1150146</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3091177122546265</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2937904608304953</v>
+        <v>0.2932736390623655</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3253393090382335</v>
+        <v>0.3256731207112061</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1927</v>
@@ -4913,19 +4913,19 @@
         <v>2058973</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1978559</v>
+        <v>1988916</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2133005</v>
+        <v>2142372</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2976548627119613</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2860297460655863</v>
+        <v>0.2875270665783831</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3083572120718167</v>
+        <v>0.3097113930839441</v>
       </c>
     </row>
     <row r="31">
@@ -4942,19 +4942,19 @@
         <v>529206</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>485525</v>
+        <v>487944</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>580888</v>
+        <v>575556</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1563053222547814</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1434037242027911</v>
+        <v>0.1441181226766264</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1715699700811472</v>
+        <v>0.1699949995005115</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>486</v>
@@ -4963,19 +4963,19 @@
         <v>514794</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>472615</v>
+        <v>473096</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>555784</v>
+        <v>561205</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1457681832036503</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1338247972231892</v>
+        <v>0.1339608784486901</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1573748036385123</v>
+        <v>0.1589097448095732</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>970</v>
@@ -4984,19 +4984,19 @@
         <v>1044001</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>984274</v>
+        <v>984780</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1105282</v>
+        <v>1106621</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1509256481479006</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1422912623643159</v>
+        <v>0.1423643870582116</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1597847579575945</v>
+        <v>0.1599783280020343</v>
       </c>
     </row>
     <row r="32">
@@ -5259,19 +5259,19 @@
         <v>286212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>261475</v>
+        <v>261550</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>312154</v>
+        <v>312351</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5208939607784272</v>
+        <v>0.5208939607784273</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.475872600612061</v>
+        <v>0.4760092781535567</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5681060033055603</v>
+        <v>0.5684650871581732</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>349</v>
@@ -5280,19 +5280,19 @@
         <v>245328</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>225088</v>
+        <v>224650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>264127</v>
+        <v>262906</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.50377472506984</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4622132146070678</v>
+        <v>0.461312788031821</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5423795464277746</v>
+        <v>0.5398713567844965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>633</v>
@@ -5301,19 +5301,19 @@
         <v>531540</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>498755</v>
+        <v>499707</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>559771</v>
+        <v>565644</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5128503813217709</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.481217663573405</v>
+        <v>0.4821362119866949</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5400889851405765</v>
+        <v>0.5457550758240242</v>
       </c>
     </row>
     <row r="5">
@@ -5330,19 +5330,19 @@
         <v>69017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53752</v>
+        <v>54374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>86679</v>
+        <v>86589</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1256080650409609</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09782573157654514</v>
+        <v>0.09895871510683903</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1577527530856595</v>
+        <v>0.1575886854863484</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>98</v>
@@ -5351,19 +5351,19 @@
         <v>65346</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53665</v>
+        <v>54531</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79764</v>
+        <v>77987</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1341868273488226</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1101996503734129</v>
+        <v>0.1119788134600649</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1637944736062655</v>
+        <v>0.1601453317849658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>174</v>
@@ -5372,19 +5372,19 @@
         <v>134363</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>115917</v>
+        <v>115066</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>154900</v>
+        <v>155314</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1296388499099631</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1118413129346034</v>
+        <v>0.1110197217014687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1494533329026371</v>
+        <v>0.1498533667324468</v>
       </c>
     </row>
     <row r="6">
@@ -5401,19 +5401,19 @@
         <v>140766</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>119998</v>
+        <v>120847</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>161072</v>
+        <v>161749</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2561882803638626</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.218390865831632</v>
+        <v>0.2199355453017652</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2931446743494811</v>
+        <v>0.2943765133552037</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>167</v>
@@ -5422,19 +5422,19 @@
         <v>116530</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>100903</v>
+        <v>101963</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>133180</v>
+        <v>132995</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2392910153609833</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2072013950938496</v>
+        <v>0.2093796170508102</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2734815821096442</v>
+        <v>0.2731015955540472</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>313</v>
@@ -5443,19 +5443,19 @@
         <v>257296</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>233672</v>
+        <v>231129</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>287227</v>
+        <v>283878</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2482489952249436</v>
+        <v>0.2482489952249435</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2254558720246019</v>
+        <v>0.2230017115964715</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.277127858938894</v>
+        <v>0.2738965766596777</v>
       </c>
     </row>
     <row r="7">
@@ -5472,19 +5472,19 @@
         <v>53468</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37910</v>
+        <v>38727</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70959</v>
+        <v>70540</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09730969381674931</v>
+        <v>0.09730969381674932</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0689938428200197</v>
+        <v>0.07048186487296179</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1291420259676082</v>
+        <v>0.1283787731639444</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -5493,19 +5493,19 @@
         <v>59775</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46474</v>
+        <v>47132</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77099</v>
+        <v>75748</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.122747432220354</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09543289884970857</v>
+        <v>0.09678352726027425</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1583216867279256</v>
+        <v>0.1555465048126639</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -5514,19 +5514,19 @@
         <v>113244</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94163</v>
+        <v>93782</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135438</v>
+        <v>137527</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1092617735433226</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09085200445727382</v>
+        <v>0.09048457932110984</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1306756979641377</v>
+        <v>0.1326915388277884</v>
       </c>
     </row>
     <row r="8">
@@ -5547,19 +5547,19 @@
         <v>289292</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>264866</v>
+        <v>266199</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>311411</v>
+        <v>310347</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5986845109816648</v>
+        <v>0.5986845109816646</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5481370818677853</v>
+        <v>0.5508941274238122</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6444595061020222</v>
+        <v>0.6422591830786444</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>335</v>
@@ -5568,19 +5568,19 @@
         <v>238660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>218541</v>
+        <v>220151</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>253449</v>
+        <v>256488</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5640172488516344</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5164707945720822</v>
+        <v>0.520275192519822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5989676309686761</v>
+        <v>0.6061499611125518</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>630</v>
@@ -5589,19 +5589,19 @@
         <v>527951</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>498171</v>
+        <v>499607</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>554215</v>
+        <v>558942</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5824996780790763</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5496419360141943</v>
+        <v>0.5512270253738798</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6114767295697925</v>
+        <v>0.6166925422319969</v>
       </c>
     </row>
     <row r="9">
@@ -5618,19 +5618,19 @@
         <v>29063</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21327</v>
+        <v>20631</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40189</v>
+        <v>40300</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06014488815234469</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0441366669841465</v>
+        <v>0.04269639028412232</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08317124074948079</v>
+        <v>0.08339986581992018</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>39</v>
@@ -5639,19 +5639,19 @@
         <v>26898</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19458</v>
+        <v>19264</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36709</v>
+        <v>36851</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06356763727335214</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04598384891061542</v>
+        <v>0.04552684805888531</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0867525155786027</v>
+        <v>0.0870887259252883</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>75</v>
@@ -5660,19 +5660,19 @@
         <v>55961</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>44458</v>
+        <v>44437</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>71150</v>
+        <v>71413</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06174284020241443</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04905136223342092</v>
+        <v>0.04902844369769889</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07850114961773363</v>
+        <v>0.07879133089995767</v>
       </c>
     </row>
     <row r="10">
@@ -5689,19 +5689,19 @@
         <v>109423</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90791</v>
+        <v>89568</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130137</v>
+        <v>131169</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2264490059438497</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1878912274441478</v>
+        <v>0.185360190196678</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.269316851824851</v>
+        <v>0.2714514613706763</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>142</v>
@@ -5710,19 +5710,19 @@
         <v>101796</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86898</v>
+        <v>87352</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117179</v>
+        <v>118274</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.240572048581969</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.205363321077755</v>
+        <v>0.206436711574867</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2769254124826732</v>
+        <v>0.2795137253672018</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>244</v>
@@ -5731,19 +5731,19 @@
         <v>211219</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>185134</v>
+        <v>185631</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>236092</v>
+        <v>237503</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2330425201451367</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2042621549496867</v>
+        <v>0.2048104944371341</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2604847731498001</v>
+        <v>0.2620420321904083</v>
       </c>
     </row>
     <row r="11">
@@ -5760,19 +5760,19 @@
         <v>55435</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42723</v>
+        <v>41450</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>73963</v>
+        <v>70944</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1147215949221409</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0884147591378357</v>
+        <v>0.08578071053736198</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1530659398684265</v>
+        <v>0.1468182103599296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>74</v>
@@ -5781,19 +5781,19 @@
         <v>55788</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>42718</v>
+        <v>44442</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>68810</v>
+        <v>69532</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1318430652930444</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1009542690333002</v>
+        <v>0.1050273019327642</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1626175536936638</v>
+        <v>0.1643234872559377</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>122</v>
@@ -5802,19 +5802,19 @@
         <v>111223</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>94176</v>
+        <v>91525</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>134659</v>
+        <v>130848</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1227149615733726</v>
+        <v>0.1227149615733727</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1039061830140512</v>
+        <v>0.1009812500098026</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1485724811758</v>
+        <v>0.1443677425063515</v>
       </c>
     </row>
     <row r="12">
@@ -5835,19 +5835,19 @@
         <v>310575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>290841</v>
+        <v>288501</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>333201</v>
+        <v>329785</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6598579731301606</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6179309296018785</v>
+        <v>0.6129597769892288</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7079310616177746</v>
+        <v>0.700673508956318</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>189</v>
@@ -5856,19 +5856,19 @@
         <v>117289</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>104601</v>
+        <v>106152</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>127966</v>
+        <v>127852</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6313036832374033</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5630118111803942</v>
+        <v>0.5713603540697192</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6887753204478568</v>
+        <v>0.6881604814082783</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>518</v>
@@ -5877,19 +5877,19 @@
         <v>427864</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>405234</v>
+        <v>402347</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>451367</v>
+        <v>452756</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6517766325444452</v>
+        <v>0.6517766325444451</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6173032337958847</v>
+        <v>0.6129062424127287</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6875799435419832</v>
+        <v>0.6896952879026268</v>
       </c>
     </row>
     <row r="13">
@@ -5906,19 +5906,19 @@
         <v>28576</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19645</v>
+        <v>19494</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40260</v>
+        <v>40776</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06071448922178804</v>
+        <v>0.06071448922178805</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0417385210909834</v>
+        <v>0.04141673640327235</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0855372410674993</v>
+        <v>0.08663486524370198</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -5927,19 +5927,19 @@
         <v>13125</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7836</v>
+        <v>7981</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19920</v>
+        <v>19673</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0706423974715205</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04217570620879297</v>
+        <v>0.04295670071697942</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1072192907759023</v>
+        <v>0.1058915645007127</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -5948,19 +5948,19 @@
         <v>41701</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31045</v>
+        <v>31183</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54922</v>
+        <v>54895</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06352425294454735</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04729222853667887</v>
+        <v>0.04750249922155064</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08366403873746546</v>
+        <v>0.08362285329989785</v>
       </c>
     </row>
     <row r="14">
@@ -5977,19 +5977,19 @@
         <v>82833</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>67435</v>
+        <v>66786</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101673</v>
+        <v>102461</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1759893157605616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1432745838047066</v>
+        <v>0.1418965694117151</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.216017286872472</v>
+        <v>0.2176923371571087</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -5998,19 +5998,19 @@
         <v>28485</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21125</v>
+        <v>20247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39979</v>
+        <v>38829</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1533201543104381</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1137041302742681</v>
+        <v>0.10897698811817</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2151853683392992</v>
+        <v>0.2089964116369714</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>124</v>
@@ -6019,19 +6019,19 @@
         <v>111318</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>91802</v>
+        <v>93317</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>131173</v>
+        <v>133421</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1695735647417458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1398451650610057</v>
+        <v>0.1421527442878826</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.199818762356651</v>
+        <v>0.2032435663079795</v>
       </c>
     </row>
     <row r="15">
@@ -6048,19 +6048,19 @@
         <v>48685</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35220</v>
+        <v>36763</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>64423</v>
+        <v>65571</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1034382218874897</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07482946810685166</v>
+        <v>0.07810838947553753</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1368751057692265</v>
+        <v>0.1393147118295676</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>37</v>
@@ -6069,19 +6069,19 @@
         <v>26890</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19281</v>
+        <v>18931</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>36726</v>
+        <v>35914</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.144733764980638</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1037790751178325</v>
+        <v>0.1018943369370272</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1976784475546133</v>
+        <v>0.1933039428756906</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>81</v>
@@ -6090,19 +6090,19 @@
         <v>75575</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>60423</v>
+        <v>59520</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>92983</v>
+        <v>93542</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.1151255497692617</v>
+        <v>0.1151255497692616</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09204423649270523</v>
+        <v>0.09066885645337794</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1416441675546723</v>
+        <v>0.1424956666876333</v>
       </c>
     </row>
     <row r="16">
@@ -6123,19 +6123,19 @@
         <v>760465</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>728448</v>
+        <v>724502</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>794320</v>
+        <v>791492</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6757173841812176</v>
+        <v>0.6757173841812175</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6472686132457995</v>
+        <v>0.6437616040741091</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7057989888862145</v>
+        <v>0.7032866205115441</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>790</v>
@@ -6144,19 +6144,19 @@
         <v>547976</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>523122</v>
+        <v>520682</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>571825</v>
+        <v>572565</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6379674703712845</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6090315623388082</v>
+        <v>0.6061901118414418</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6657320185076698</v>
+        <v>0.6665938610030329</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1569</v>
@@ -6165,19 +6165,19 @@
         <v>1308442</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1266301</v>
+        <v>1264541</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1349278</v>
+        <v>1347824</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6593771264665205</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6381408014305393</v>
+        <v>0.6372536960466383</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6799563921144185</v>
+        <v>0.6792233705374929</v>
       </c>
     </row>
     <row r="17">
@@ -6194,19 +6194,19 @@
         <v>47011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31979</v>
+        <v>34533</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61619</v>
+        <v>63528</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04177163217057615</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02841526034892829</v>
+        <v>0.03068461883634797</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05475164849562882</v>
+        <v>0.05644795978747083</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -6215,19 +6215,19 @@
         <v>47164</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36999</v>
+        <v>37037</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58609</v>
+        <v>59044</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05490995723927648</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04307522060709987</v>
+        <v>0.04311907238128577</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06823377133080789</v>
+        <v>0.06874053520628463</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>123</v>
@@ -6236,19 +6236,19 @@
         <v>94175</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>77550</v>
+        <v>77877</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>113013</v>
+        <v>114270</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04745862840169178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03908055220263155</v>
+        <v>0.03924541745344585</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05695199062222533</v>
+        <v>0.05758551080297545</v>
       </c>
     </row>
     <row r="18">
@@ -6265,19 +6265,19 @@
         <v>175444</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>149373</v>
+        <v>147187</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>203942</v>
+        <v>205952</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1558921557674023</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1327267201421512</v>
+        <v>0.1307838789513837</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1812145148511123</v>
+        <v>0.1829999057854312</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>203</v>
@@ -6286,19 +6286,19 @@
         <v>150069</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>129204</v>
+        <v>129346</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>170872</v>
+        <v>171110</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1747140388552915</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1504227309743122</v>
+        <v>0.1505881267393823</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1989332353896544</v>
+        <v>0.1992107262341287</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>363</v>
@@ -6307,19 +6307,19 @@
         <v>325513</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>292685</v>
+        <v>289170</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>360897</v>
+        <v>357621</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1640393113312671</v>
+        <v>0.164039311331267</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1474960532905181</v>
+        <v>0.1457244258164767</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1818709136680669</v>
+        <v>0.1802200177897682</v>
       </c>
     </row>
     <row r="19">
@@ -6336,19 +6336,19 @@
         <v>142499</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118993</v>
+        <v>118530</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>169391</v>
+        <v>169574</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1266188278808039</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1057323222713814</v>
+        <v>0.105320970422891</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1505134946881479</v>
+        <v>0.1506759781759431</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>161</v>
@@ -6357,19 +6357,19 @@
         <v>113731</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>97686</v>
+        <v>97347</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>130966</v>
+        <v>132553</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1324085335341474</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1137286279847542</v>
+        <v>0.1133343109563629</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.152474129960195</v>
+        <v>0.1543211816897131</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>286</v>
@@ -6378,19 +6378,19 @@
         <v>256230</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>225019</v>
+        <v>229973</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>286418</v>
+        <v>290398</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1291249338005207</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1133960895673222</v>
+        <v>0.1158926555190978</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1443375682780774</v>
+        <v>0.1463433428186751</v>
       </c>
     </row>
     <row r="20">
@@ -6411,19 +6411,19 @@
         <v>388357</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>363765</v>
+        <v>361428</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>410776</v>
+        <v>412631</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6850758932468508</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6416938719954182</v>
+        <v>0.6375723194974303</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7246230055974925</v>
+        <v>0.7278962835471632</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>955</v>
@@ -6432,19 +6432,19 @@
         <v>606898</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>585093</v>
+        <v>585900</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>626880</v>
+        <v>628915</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7322768445473067</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.705967229723751</v>
+        <v>0.706941109413614</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7563871549491022</v>
+        <v>0.758842137580227</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1342</v>
@@ -6453,19 +6453,19 @@
         <v>995255</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>965036</v>
+        <v>965751</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1026707</v>
+        <v>1026303</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7131050623611532</v>
+        <v>0.7131050623611531</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6914531505195091</v>
+        <v>0.6919653995292303</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7356403276688275</v>
+        <v>0.7353507514325851</v>
       </c>
     </row>
     <row r="21">
@@ -6482,19 +6482,19 @@
         <v>12581</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7383</v>
+        <v>6665</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20651</v>
+        <v>20720</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02219416531674602</v>
+        <v>0.02219416531674601</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0130231868947943</v>
+        <v>0.01175785612262356</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03642938967929807</v>
+        <v>0.03655029526591001</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>41</v>
@@ -6503,19 +6503,19 @@
         <v>23934</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17447</v>
+        <v>17376</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32722</v>
+        <v>32764</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02887877516366925</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02105097008742862</v>
+        <v>0.02096590346909051</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03948223049366092</v>
+        <v>0.03953211685007785</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>55</v>
@@ -6524,19 +6524,19 @@
         <v>36516</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>27503</v>
+        <v>27496</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>47263</v>
+        <v>47327</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02616366285229109</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01970605040831226</v>
+        <v>0.01970096761598245</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03386443274719787</v>
+        <v>0.03391000198620689</v>
       </c>
     </row>
     <row r="22">
@@ -6553,19 +6553,19 @@
         <v>68392</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52919</v>
+        <v>52026</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88727</v>
+        <v>89999</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1206450675275773</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09335127921858521</v>
+        <v>0.09177513279723291</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1565181369626547</v>
+        <v>0.1587608500501471</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>151</v>
@@ -6574,19 +6574,19 @@
         <v>101183</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85941</v>
+        <v>86023</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>116697</v>
+        <v>118898</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1220866484067316</v>
+        <v>0.1220866484067315</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1036955486147078</v>
+        <v>0.1037950363977187</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1408058705158608</v>
+        <v>0.1434613475844952</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>209</v>
@@ -6595,19 +6595,19 @@
         <v>169575</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>148872</v>
+        <v>146735</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>199434</v>
+        <v>195651</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1215011162541497</v>
+        <v>0.1215011162541496</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1066675391759869</v>
+        <v>0.1051359986207811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1428952066979649</v>
+        <v>0.1401850223484917</v>
       </c>
     </row>
     <row r="23">
@@ -6624,19 +6624,19 @@
         <v>97552</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>79385</v>
+        <v>79409</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>118497</v>
+        <v>120557</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1720848739088259</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1400387552429025</v>
+        <v>0.1400806031779346</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2090332282817572</v>
+        <v>0.2126663208485733</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>140</v>
@@ -6645,19 +6645,19 @@
         <v>96767</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>82394</v>
+        <v>82612</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>113071</v>
+        <v>113847</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1167577318822925</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09941538923559121</v>
+        <v>0.09967831185862547</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1364307727074281</v>
+        <v>0.1373668429293716</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>227</v>
@@ -6666,19 +6666,19 @@
         <v>194319</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>168912</v>
+        <v>171120</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>217371</v>
+        <v>220460</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1392301585324061</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.121025953423547</v>
+        <v>0.1226084925022736</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1557471060294843</v>
+        <v>0.1579605148469194</v>
       </c>
     </row>
     <row r="24">
@@ -6699,19 +6699,19 @@
         <v>158417</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>134044</v>
+        <v>134054</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>181210</v>
+        <v>179935</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6677852088371568</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5650422279524568</v>
+        <v>0.565083636964571</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7638628193364473</v>
+        <v>0.7584903953665104</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>853</v>
@@ -6720,19 +6720,19 @@
         <v>606664</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>580377</v>
+        <v>578773</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>634972</v>
+        <v>630311</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7201206680701545</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.688917229114839</v>
+        <v>0.6870138832993613</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7537219650777228</v>
+        <v>0.7481900472719024</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>928</v>
@@ -6741,19 +6741,19 @@
         <v>765082</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>728562</v>
+        <v>728598</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>797957</v>
+        <v>802472</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7086214571926056</v>
+        <v>0.7086214571926055</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6747965940207193</v>
+        <v>0.6748298289378498</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7390707001690033</v>
+        <v>0.743252851013358</v>
       </c>
     </row>
     <row r="25">
@@ -6770,19 +6770,19 @@
         <v>15145</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7272</v>
+        <v>7812</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27262</v>
+        <v>27985</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06384170113791567</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0306554424704542</v>
+        <v>0.03292952016501971</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1149168861181763</v>
+        <v>0.1179687123826188</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -6791,19 +6791,19 @@
         <v>42724</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31548</v>
+        <v>30299</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57932</v>
+        <v>56402</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05071461801605142</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03744834883772266</v>
+        <v>0.03596596914022478</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06876618180208424</v>
+        <v>0.06695039744179564</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>63</v>
@@ -6812,19 +6812,19 @@
         <v>57869</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44003</v>
+        <v>43916</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77190</v>
+        <v>76752</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05359891671597102</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04075534534776964</v>
+        <v>0.04067560943684627</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07149350156493625</v>
+        <v>0.07108817966620826</v>
       </c>
     </row>
     <row r="26">
@@ -6841,19 +6841,19 @@
         <v>39944</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23067</v>
+        <v>23812</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>62772</v>
+        <v>64980</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1683798792227083</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09723735213237419</v>
+        <v>0.1003766431238648</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2646081542948533</v>
+        <v>0.2739129172601052</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>136</v>
@@ -6862,19 +6862,19 @@
         <v>103568</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>84713</v>
+        <v>86032</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>125513</v>
+        <v>124503</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1229366249303081</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1005553053683014</v>
+        <v>0.1021211886374088</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1489862239080965</v>
+        <v>0.1477869024834844</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>152</v>
@@ -6883,19 +6883,19 @@
         <v>143512</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>117475</v>
+        <v>117168</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>174613</v>
+        <v>176449</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.132921472139615</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1088061509748753</v>
+        <v>0.1085211335599935</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1617272380916524</v>
+        <v>0.1634273833336898</v>
       </c>
     </row>
     <row r="27">
@@ -6912,19 +6912,19 @@
         <v>23721</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12063</v>
+        <v>11374</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>43186</v>
+        <v>43408</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.09999321080221923</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05084779202624255</v>
+        <v>0.04794552605067635</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1820428725544335</v>
+        <v>0.1829803826374313</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>117</v>
@@ -6933,19 +6933,19 @@
         <v>89492</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>73890</v>
+        <v>74375</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>107873</v>
+        <v>108760</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.106228088983486</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08770890702015732</v>
+        <v>0.0882844532051538</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1280471593044505</v>
+        <v>0.1291000693879868</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>127</v>
@@ -6954,19 +6954,19 @@
         <v>113213</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>92836</v>
+        <v>92876</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>140273</v>
+        <v>142680</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1048581539518085</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08598473837376006</v>
+        <v>0.08602200019929045</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1299209883328185</v>
+        <v>0.1321508011600964</v>
       </c>
     </row>
     <row r="28">
@@ -6987,19 +6987,19 @@
         <v>2193318</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2128460</v>
+        <v>2129749</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2254431</v>
+        <v>2254232</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.6389160889532087</v>
+        <v>0.6389160889532086</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6200228195605386</v>
+        <v>0.6203984711516992</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6567185275053531</v>
+        <v>0.6566605826901599</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3471</v>
@@ -7008,19 +7008,19 @@
         <v>2362815</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2311221</v>
+        <v>2307867</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2413835</v>
+        <v>2412113</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.6516166631936541</v>
+        <v>0.6516166631936543</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6373880441495763</v>
+        <v>0.6364630564071311</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6656868893264075</v>
+        <v>0.6652121790126734</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5620</v>
@@ -7029,19 +7029,19 @@
         <v>4556133</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4476175</v>
+        <v>4478255</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4635610</v>
+        <v>4631799</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.645440187670232</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.634112936391353</v>
+        <v>0.6344076067642177</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6566991567563497</v>
+        <v>0.656159258826457</v>
       </c>
     </row>
     <row r="29">
@@ -7058,19 +7058,19 @@
         <v>201393</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>175624</v>
+        <v>174367</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>232320</v>
+        <v>230323</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.05866611189581653</v>
+        <v>0.05866611189581652</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05115960183529569</v>
+        <v>0.05079345229479276</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06767520872596089</v>
+        <v>0.06709338438241939</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>321</v>
@@ -7079,19 +7079,19 @@
         <v>219192</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>195306</v>
+        <v>193601</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>246390</v>
+        <v>245472</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.06044871849451496</v>
+        <v>0.06044871849451498</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05386145534906715</v>
+        <v>0.05339111492832523</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06794936962418624</v>
+        <v>0.0676961908170884</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>540</v>
@@ -7100,19 +7100,19 @@
         <v>420585</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>385457</v>
+        <v>382816</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>461245</v>
+        <v>460575</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05958181076134419</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05460539146586761</v>
+        <v>0.05423121142517563</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06534176913482798</v>
+        <v>0.06524689258365558</v>
       </c>
     </row>
     <row r="30">
@@ -7129,19 +7129,19 @@
         <v>616802</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>567507</v>
+        <v>567900</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>669992</v>
+        <v>667816</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1796750396596474</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1653153862367243</v>
+        <v>0.1654299031028341</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1951695573203927</v>
+        <v>0.1945355494478454</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>841</v>
@@ -7150,19 +7150,19 @@
         <v>601631</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>561086</v>
+        <v>562594</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>642676</v>
+        <v>641275</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1659177191119682</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1547363001124412</v>
+        <v>0.1551521574781888</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1772370331151253</v>
+        <v>0.1768508291642077</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1405</v>
@@ -7171,19 +7171,19 @@
         <v>1218433</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1155243</v>
+        <v>1160631</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1282324</v>
+        <v>1285446</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.172608105863145</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1636563081645385</v>
+        <v>0.1644196947822468</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1816591303549178</v>
+        <v>0.1821014235900711</v>
       </c>
     </row>
     <row r="31">
@@ -7200,19 +7200,19 @@
         <v>421360</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>379150</v>
+        <v>382268</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>464001</v>
+        <v>466819</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1227427594913274</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1104468475282234</v>
+        <v>0.111355077099166</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1351639067395708</v>
+        <v>0.1359850089351289</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>599</v>
@@ -7221,19 +7221,19 @@
         <v>442443</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>408602</v>
+        <v>407656</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>478887</v>
+        <v>482272</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1220168991998626</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1126840838410629</v>
+        <v>0.1124234340243363</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1320672704082685</v>
+        <v>0.1330010030239295</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>960</v>
@@ -7242,19 +7242,19 @@
         <v>863804</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>811096</v>
+        <v>809747</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>924929</v>
+        <v>924927</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1223698957052788</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1149031312426025</v>
+        <v>0.1147119976388268</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1310291271977726</v>
+        <v>0.1310288945053089</v>
       </c>
     </row>
     <row r="32">
